--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 21C/PRUEBA_TEMPERATURA_6_21C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 21C/PRUEBA_TEMPERATURA_6_21C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,109 +73,88 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 01:39:47</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:40:47</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:41:48</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:42:49</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:43:50</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:44:51</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:45:52</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:46:53</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:47:54</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:48:55</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:49:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:50:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:51:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:52:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:53:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:55:00</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:56:01</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:57:02</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:58:03</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:59:04</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:00:05</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:01:06</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:02:07</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:03:07</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:04:08</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:05:09</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:06:10</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:07:11</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:08:12</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:09:13</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:10:14</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:11:15</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:12:16</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:13:17</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:14:18</t>
+    <t>2023-12-12 01:32:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:34:01</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:35:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:36:05</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:37:07</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:38:09</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:39:11</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:40:13</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:41:15</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:42:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:43:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:44:21</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:45:23</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:46:25</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:47:27</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:48:29</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:49:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:50:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:51:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:52:37</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:53:39</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:54:41</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:55:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:56:45</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:57:47</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:58:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:59:51</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:00:53</t>
   </si>
 </sst>
 </file>
@@ -842,114 +821,93 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$36</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>25.279720279720198</c:v>
+                  <c:v>27.5087412587412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.7552447552447</c:v>
+                  <c:v>26.1975524475524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.361888111888099</c:v>
+                  <c:v>25.4108391608391</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>25.148601398601301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>24.0996503496503</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.837412587412501</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>23.7062937062937</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>23.575174825174798</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23.312937062936999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.788461538461501</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>22.788461538461501</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>22.919580419580399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.0506993006993</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>22.6573426573426</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.3951048951049</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.526223776223699</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.3951048951049</c:v>
+                  <c:v>22.788461538461501</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.3951048951049</c:v>
+                  <c:v>23.0506993006993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.526223776223699</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.526223776223699</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>22.526223776223699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.263986013985999</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.526223776223699</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.263986013985999</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.526223776223699</c:v>
+                  <c:v>22.3951048951049</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>22.526223776223699</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.526223776223699</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.263986013985999</c:v>
+                  <c:v>22.3951048951049</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.526223776223699</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.3951048951049</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,6 +995,7 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="21"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1205,37 +1164,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>22.526223776223699</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>22.526223776223699</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.526223776223699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>22.3951048951049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,10 +1291,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22.311665607120116</c:v>
+                  <c:v>22.585823267641402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.311665607120116</c:v>
+                  <c:v>22.585823267641402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3106,17 +3065,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.279720279720198</v>
+        <v>27.5087412587412</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>9.1550925935734995E-3</v>
+        <v>4.3055555579485372E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3133,14 +3092,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.7552447552447</v>
+        <v>26.1975524475524</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)</f>
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3157,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.361888111888099</v>
+        <v>25.4108391608391</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3174,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.0996503496503</v>
+        <v>25.148601398601301</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3191,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.837412587412501</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3208,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.575174825174798</v>
+        <v>24.0996503496503</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3225,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>23.444055944055901</v>
+        <v>23.7062937062937</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3242,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.312937062936999</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3259,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.0506993006993</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3276,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.919580419580399</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3293,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.788461538461501</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3327,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.6573426573426</v>
+        <v>22.919580419580399</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3344,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.3951048951049</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3361,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3378,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.3951048951049</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3395,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.3951048951049</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3412,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3429,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3463,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.263986013985999</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3480,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3497,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.263986013985999</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3514,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.526223776223699</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3548,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3565,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>22.263986013985999</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3582,126 +3541,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>22.526223776223699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>21</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>22.263986013985999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>21</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>22.263986013985999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>21</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>22.263986013985999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>21</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>22.132867132867101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>21</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>22.132867132867101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>21</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>22.3951048951049</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>21</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>22.132867132867101</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
   </sheetData>
@@ -3715,7 +3555,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3740,45 +3580,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:04:08</v>
+        <v>2023-12-12 01:50:33</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>22.311665607120116</v>
+        <v>22.585823267641402</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:05:09</v>
+        <v>2023-12-12 01:51:35</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>22.311665607120116</v>
+        <v>22.585823267641402</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:06:10</v>
+        <v>2023-12-12 01:52:37</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>22.263986013985999</v>
+        <v>22.526223776223699</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3787,35 +3627,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:07:11</v>
+        <v>2023-12-12 01:53:39</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.15813532058272428</v>
+        <v>0.10754364496476027</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:08:12</v>
+        <v>2023-12-12 01:54:41</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>22.263986013985999</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:09:13</v>
+        <v>2023-12-12 01:55:43</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>22.263986013985999</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3824,36 +3664,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:10:14</v>
+        <v>2023-12-12 01:56:45</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>22.263986013985999</v>
+        <v>22.3951048951049</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>22.526223776223699</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:11:15</v>
+        <v>2023-12-12 01:57:47</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>22.132867132867101</v>
+        <v>22.526223776223699</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:12:16</v>
+        <v>2023-12-12 01:58:49</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>22.132867132867101</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3862,7 +3702,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:13:17</v>
+        <v>2023-12-12 01:59:51</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
@@ -3870,17 +3710,17 @@
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>22.132867132867101</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 02:14:18</v>
+        <v>2023-12-12 02:00:53</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>22.132867132867101</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
